--- a/example.xlsx
+++ b/example.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\fivedhub\localGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC78355-2571-4C2E-9D38-3FFC7239AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8B808-8615-45BA-81B5-DE1E8B90BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лендинг EcoPoint" sheetId="1" r:id="rId1"/>
+    <sheet name="locales" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
